--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/131.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/131.xlsx
@@ -479,13 +479,13 @@
         <v>-29.51625150229465</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.720801912369547</v>
+        <v>-8.940448293791306</v>
       </c>
       <c r="F2" t="n">
-        <v>-3.037024204034288</v>
+        <v>-3.018236749456411</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.489569201820186</v>
+        <v>-5.558876669710405</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-28.9773470765828</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.00987995911486</v>
+        <v>-9.214574930691366</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.994971727306664</v>
+        <v>-3.077505604420905</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.454115245724792</v>
+        <v>-5.502383382948357</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-28.15061309784002</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.83447246899529</v>
+        <v>-10.03318425817313</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.809977488153075</v>
+        <v>-2.942798900482386</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.334962197562243</v>
+        <v>-5.371394893016888</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-27.09243468713413</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.56508842907781</v>
+        <v>-10.79412199163709</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.771983625306385</v>
+        <v>-2.856402794029835</v>
       </c>
       <c r="G5" t="n">
-        <v>-6.575258323919283</v>
+        <v>-5.594068779748965</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-25.83588237531292</v>
       </c>
       <c r="E6" t="n">
-        <v>-12.41403262224386</v>
+        <v>-11.58546005229954</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.579605327350063</v>
+        <v>-2.707464756902359</v>
       </c>
       <c r="G6" t="n">
-        <v>-6.088748350320743</v>
+        <v>-5.141480962813336</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-24.42434128871521</v>
       </c>
       <c r="E7" t="n">
-        <v>-13.09950632212811</v>
+        <v>-12.25926851035181</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.52141004121859</v>
+        <v>-2.677077522006713</v>
       </c>
       <c r="G7" t="n">
-        <v>-6.178600824723508</v>
+        <v>-5.260908949335562</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-22.92582978020973</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.66501525107363</v>
+        <v>-12.77240822793043</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.42499832309212</v>
+        <v>-2.552910121855783</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.67200725856576</v>
+        <v>-4.802717626783674</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-21.42376800985759</v>
       </c>
       <c r="E9" t="n">
-        <v>-14.66873664843455</v>
+        <v>-13.75021995796758</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.233942347722811</v>
+        <v>-2.303554121932269</v>
       </c>
       <c r="G9" t="n">
-        <v>-5.475452516002926</v>
+        <v>-4.691537791051736</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-19.96844930034822</v>
       </c>
       <c r="E10" t="n">
-        <v>-15.41942310877344</v>
+        <v>-14.49716201969373</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.205217835288064</v>
+        <v>-2.286167543758456</v>
       </c>
       <c r="G10" t="n">
-        <v>-5.09713733308841</v>
+        <v>-4.308312994571573</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-18.63564311657312</v>
       </c>
       <c r="E11" t="n">
-        <v>-16.11814621913352</v>
+        <v>-15.17877349023968</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.999275911587713</v>
+        <v>-2.119685820823068</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.862392343136261</v>
+        <v>-4.096112950112877</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-17.47280922948218</v>
       </c>
       <c r="E12" t="n">
-        <v>-16.76918716254404</v>
+        <v>-15.83180446368213</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.108059855899615</v>
+        <v>-2.132044954705657</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.337783768268298</v>
+        <v>-3.573887174362107</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-16.47794185083214</v>
       </c>
       <c r="E13" t="n">
-        <v>-17.74415786286453</v>
+        <v>-16.80571468747245</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.896383503554588</v>
+        <v>-1.951554467729621</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.668308862456636</v>
+        <v>-2.942550146728393</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-15.66532166125315</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.33570738216224</v>
+        <v>-17.42525555024577</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.638700799023735</v>
+        <v>-1.685322489443122</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.389429719625029</v>
+        <v>-2.593587906785026</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-15.01728308973854</v>
       </c>
       <c r="E15" t="n">
-        <v>-19.26204017742573</v>
+        <v>-18.32134512594487</v>
       </c>
       <c r="F15" t="n">
-        <v>-1.500367527198058</v>
+        <v>-1.533373222662049</v>
       </c>
       <c r="G15" t="n">
-        <v>-2.798796661526241</v>
+        <v>-2.013611983199403</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-14.49200322970581</v>
       </c>
       <c r="E16" t="n">
-        <v>-20.1796142220881</v>
+        <v>-19.22182062309595</v>
       </c>
       <c r="F16" t="n">
-        <v>-1.329997390318676</v>
+        <v>-1.376265588561336</v>
       </c>
       <c r="G16" t="n">
-        <v>-2.374566772545791</v>
+        <v>-1.622322328168736</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-14.08543012470324</v>
       </c>
       <c r="E17" t="n">
-        <v>-20.97723658811458</v>
+        <v>-20.01273973006746</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.149533087948324</v>
+        <v>-1.147713257853324</v>
       </c>
       <c r="G17" t="n">
-        <v>-1.881615385949121</v>
+        <v>-1.103631474185233</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-13.77769861436253</v>
       </c>
       <c r="E18" t="n">
-        <v>-21.93624777127101</v>
+        <v>-20.98390057026102</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.050162509379623</v>
+        <v>-1.058593952409695</v>
       </c>
       <c r="G18" t="n">
-        <v>-1.507096970858705</v>
+        <v>-0.7475732061016506</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-13.54023936657653</v>
       </c>
       <c r="E19" t="n">
-        <v>-22.78034781238562</v>
+        <v>-21.82408601282594</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.9521928072149873</v>
+        <v>-0.9152463285956364</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.158344207760806</v>
+        <v>-0.3679487929029615</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-13.3759179064381</v>
       </c>
       <c r="E20" t="n">
-        <v>-23.46825668059843</v>
+        <v>-22.46856771251275</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7361436257208237</v>
+        <v>-0.6657724979465461</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.8183240106583383</v>
+        <v>-0.01469227762750873</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-13.26739348682204</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.08068842292869</v>
+        <v>-23.09297891194319</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.4646354493891085</v>
+        <v>-0.370933837950875</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.4555886681254758</v>
+        <v>0.3178129376438082</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-13.1932991512552</v>
       </c>
       <c r="E22" t="n">
-        <v>-24.75161657435579</v>
+        <v>-23.72995872210169</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.3108925371187193</v>
+        <v>-0.1401165388512444</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.2749934427267064</v>
+        <v>0.3432120051567568</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-13.1544152787971</v>
       </c>
       <c r="E23" t="n">
-        <v>-25.17401354093839</v>
+        <v>-24.21151980522606</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.2457583304811321</v>
+        <v>-0.04543300469988153</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.07320177902718253</v>
+        <v>0.5949115272889405</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-13.13636489433984</v>
       </c>
       <c r="E24" t="n">
-        <v>-25.60921477970021</v>
+        <v>-24.6012645685214</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2801256254406631</v>
+        <v>-0.06850164230700287</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04528898936862255</v>
+        <v>0.546758037437072</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-13.13033784289929</v>
       </c>
       <c r="E25" t="n">
-        <v>-25.86460633123376</v>
+        <v>-24.87184319135136</v>
       </c>
       <c r="F25" t="n">
-        <v>0.02195307802648254</v>
+        <v>0.2338127226112938</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03872974564491779</v>
+        <v>0.5357212261414969</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-13.14444739396658</v>
       </c>
       <c r="E26" t="n">
-        <v>-25.87458266599916</v>
+        <v>-24.87122785311779</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.008054480086753612</v>
+        <v>0.2340352917596031</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1997519782953067</v>
+        <v>0.3776447616304964</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-13.17160181372128</v>
       </c>
       <c r="E27" t="n">
-        <v>-25.88427097010203</v>
+        <v>-24.84311867891661</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.2043211919870691</v>
+        <v>0.04532283859896357</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1767095252938688</v>
+        <v>0.3677862575906766</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-13.21126708037511</v>
       </c>
       <c r="E28" t="n">
-        <v>-25.9348727205853</v>
+        <v>-24.94031593521358</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.006548865259955114</v>
+        <v>0.1832109721280225</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.4733549230816981</v>
+        <v>0.06966142958173233</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-13.26980093600026</v>
       </c>
       <c r="E29" t="n">
-        <v>-26.02683305574559</v>
+        <v>-24.98964773232121</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.06151035258952115</v>
+        <v>0.1438947866943191</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.5402434983000766</v>
+        <v>-0.02604330419128523</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-13.33485275066197</v>
       </c>
       <c r="E30" t="n">
-        <v>-25.77145459651488</v>
+        <v>-24.76605738439021</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.1652013910959916</v>
+        <v>0.01188509714119519</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.6879115820519048</v>
+        <v>-0.2138000192444788</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-13.4022022974439</v>
       </c>
       <c r="E31" t="n">
-        <v>-25.34138554046702</v>
+        <v>-24.31191158341641</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1733448034635452</v>
+        <v>0.0151058036402598</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.207558174142854</v>
+        <v>-0.6989614856503217</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-13.47012461477259</v>
       </c>
       <c r="E32" t="n">
-        <v>-25.41106277619069</v>
+        <v>-24.36458191774868</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.09480407871603054</v>
+        <v>0.07686219614468166</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.366655838275509</v>
+        <v>-0.8037784622011805</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-13.52223368648872</v>
       </c>
       <c r="E33" t="n">
-        <v>-24.99243639282649</v>
+        <v>-23.96720434189661</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1434419837730429</v>
+        <v>0.01212075859234626</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.869020590615381</v>
+        <v>-1.286544037186988</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-13.5584921022964</v>
       </c>
       <c r="E34" t="n">
-        <v>-24.36318104134461</v>
+        <v>-23.37683312985466</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.197251348452537</v>
+        <v>-0.1198496540522525</v>
       </c>
       <c r="G34" t="n">
-        <v>-1.90565285396653</v>
+        <v>-1.36203425537238</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-13.57862346332622</v>
       </c>
       <c r="E35" t="n">
-        <v>-24.00563025073708</v>
+        <v>-23.03556916398222</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.3947749214256582</v>
+        <v>-0.3179885652589348</v>
       </c>
       <c r="G35" t="n">
-        <v>-2.040425019419258</v>
+        <v>-1.417139758033205</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-13.56780051433068</v>
       </c>
       <c r="E36" t="n">
-        <v>-23.21928035745733</v>
+        <v>-22.29879982156409</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.494197869205726</v>
+        <v>-0.4294957085619158</v>
       </c>
       <c r="G36" t="n">
-        <v>-2.21209129427997</v>
+        <v>-1.620960728673197</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-13.53213088777071</v>
       </c>
       <c r="E37" t="n">
-        <v>-22.4270389278988</v>
+        <v>-21.49719739547373</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.4419464885643972</v>
+        <v>-0.3677262237546521</v>
       </c>
       <c r="G37" t="n">
-        <v>-2.372733850147949</v>
+        <v>-1.741828868508012</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-13.47364825093325</v>
       </c>
       <c r="E38" t="n">
-        <v>-22.049325990915</v>
+        <v>-21.11563532145446</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.5020008816993947</v>
+        <v>-0.432925891906448</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.644189657268297</v>
+        <v>-2.001802726036166</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-13.38226129874086</v>
       </c>
       <c r="E39" t="n">
-        <v>-21.39489414106848</v>
+        <v>-20.46562866996845</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.4330829995405487</v>
+        <v>-0.296137511816094</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.830152726832174</v>
+        <v>-2.153424685246196</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-13.27362374568636</v>
       </c>
       <c r="E40" t="n">
-        <v>-21.0050446393504</v>
+        <v>-20.12838404106843</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.6262468356673752</v>
+        <v>-0.5651057813965144</v>
       </c>
       <c r="G40" t="n">
-        <v>-3.027335899931411</v>
+        <v>-2.375142833870827</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-13.15528477094289</v>
       </c>
       <c r="E41" t="n">
-        <v>-20.38656425310726</v>
+        <v>-19.57289072379683</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.4125018994733553</v>
+        <v>-0.2907827599538281</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.934576934297782</v>
+        <v>-2.227618765450257</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-13.02507964507618</v>
       </c>
       <c r="E42" t="n">
-        <v>-19.87709038032434</v>
+        <v>-19.02776651037588</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1681602515382217</v>
+        <v>-0.0461661736590182</v>
       </c>
       <c r="G42" t="n">
-        <v>-3.033201251604504</v>
+        <v>-2.242399975358566</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-12.90592507124678</v>
       </c>
       <c r="E43" t="n">
-        <v>-18.96153255029959</v>
+        <v>-18.12915012022833</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.1451832600509924</v>
+        <v>-0.05187441769801076</v>
       </c>
       <c r="G43" t="n">
-        <v>-3.004817139043642</v>
+        <v>-2.156828683985045</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-12.80640454990788</v>
       </c>
       <c r="E44" t="n">
-        <v>-18.62873930436576</v>
+        <v>-17.80071661114079</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.09727852395311677</v>
+        <v>-0.004964696616106259</v>
       </c>
       <c r="G44" t="n">
-        <v>-3.23182457801633</v>
+        <v>-2.346392136830396</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-12.72453843015072</v>
       </c>
       <c r="E45" t="n">
-        <v>-18.06232700652416</v>
+        <v>-17.27375142176131</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.1233976681223603</v>
+        <v>-0.03285130166898279</v>
       </c>
       <c r="G45" t="n">
-        <v>-3.299380860679637</v>
+        <v>-2.386729521885754</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-12.67651900830445</v>
       </c>
       <c r="E46" t="n">
-        <v>-17.60240749999717</v>
+        <v>-16.87022046357363</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.04974037233480941</v>
+        <v>-0.003537635606358118</v>
       </c>
       <c r="G46" t="n">
-        <v>-3.128617954715004</v>
+        <v>-2.303724321869211</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-12.66004377184846</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.92211835203824</v>
+        <v>-16.21136341536661</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.09784149297531099</v>
+        <v>0.009174990452957894</v>
       </c>
       <c r="G47" t="n">
-        <v>-3.502219908606499</v>
+        <v>-2.62532364887337</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-12.6683176312881</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.26400756509319</v>
+        <v>-15.54950822980883</v>
       </c>
       <c r="F48" t="n">
-        <v>-0.05585447776189548</v>
+        <v>-0.00649649604858821</v>
       </c>
       <c r="G48" t="n">
-        <v>-3.3702494959619</v>
+        <v>-2.54818380052992</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-12.71039604120707</v>
       </c>
       <c r="E49" t="n">
-        <v>-15.63205519922592</v>
+        <v>-14.99836155708069</v>
       </c>
       <c r="F49" t="n">
-        <v>0.03645934957511502</v>
+        <v>0.1284065924325572</v>
       </c>
       <c r="G49" t="n">
-        <v>-3.660126173180557</v>
+        <v>-2.756403784924732</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-12.77813310816814</v>
       </c>
       <c r="E50" t="n">
-        <v>-14.92109078570882</v>
+        <v>-14.29873507782453</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1187837498438885</v>
+        <v>0.2617386045726955</v>
       </c>
       <c r="G50" t="n">
-        <v>-3.620535049387177</v>
+        <v>-2.702070728131568</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-12.86498655397751</v>
       </c>
       <c r="E51" t="n">
-        <v>-14.10440602674479</v>
+        <v>-13.49897866643486</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1450730939500745</v>
+        <v>0.2665303874127672</v>
       </c>
       <c r="G51" t="n">
-        <v>-3.781845312700084</v>
+        <v>-2.788689403732428</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-12.97757062503776</v>
       </c>
       <c r="E52" t="n">
-        <v>-13.51971687413615</v>
+        <v>-12.90542602480236</v>
       </c>
       <c r="F52" t="n">
-        <v>0.2140826222288126</v>
+        <v>0.3429894360084474</v>
       </c>
       <c r="G52" t="n">
-        <v>-3.702964188078685</v>
+        <v>-2.790037910925126</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-13.10688036521757</v>
       </c>
       <c r="E53" t="n">
-        <v>-12.85397327463438</v>
+        <v>-12.26733336890232</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2834194580785939</v>
+        <v>0.3989983075653516</v>
       </c>
       <c r="G53" t="n">
-        <v>-3.756969937300805</v>
+        <v>-2.815777378311959</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-13.25212267040768</v>
       </c>
       <c r="E54" t="n">
-        <v>-12.470931770394</v>
+        <v>-11.89028813936345</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1532034140147864</v>
+        <v>0.2906856861557518</v>
       </c>
       <c r="G54" t="n">
-        <v>-3.945616928947235</v>
+        <v>-2.941646777832314</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-13.41967728859302</v>
       </c>
       <c r="E55" t="n">
-        <v>-11.89422892251881</v>
+        <v>-11.40169648961307</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.01395910866837207</v>
+        <v>0.05278545121874743</v>
       </c>
       <c r="G55" t="n">
-        <v>-4.36858995685488</v>
+        <v>-3.419450370041107</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-13.59850164514657</v>
       </c>
       <c r="E56" t="n">
-        <v>-11.46680451164498</v>
+        <v>-10.97530637066374</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.01825338400045822</v>
+        <v>0.1239944863748955</v>
       </c>
       <c r="G56" t="n">
-        <v>-4.483448729685342</v>
+        <v>-3.500386986208657</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-13.78902303444316</v>
       </c>
       <c r="E57" t="n">
-        <v>-10.69412298253199</v>
+        <v>-10.21411988344578</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.06360512104419731</v>
+        <v>0.06573373872921451</v>
       </c>
       <c r="G57" t="n">
-        <v>-4.898474729768059</v>
+        <v>-3.867547527102023</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-13.99241362036975</v>
       </c>
       <c r="E58" t="n">
-        <v>-10.43349450986175</v>
+        <v>-9.920001300106408</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.2272458142629314</v>
+        <v>-0.1148353020638714</v>
       </c>
       <c r="G58" t="n">
-        <v>-4.912182370843346</v>
+        <v>-3.894177271082094</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-14.19275042480686</v>
       </c>
       <c r="E59" t="n">
-        <v>-9.821586459645154</v>
+        <v>-9.356220555136002</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.1746409414448761</v>
+        <v>-0.0407459602825436</v>
       </c>
       <c r="G59" t="n">
-        <v>-5.218502980431211</v>
+        <v>-4.178542088804384</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-14.39075421678707</v>
       </c>
       <c r="E60" t="n">
-        <v>-9.498769548476714</v>
+        <v>-8.99660118067947</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.2805183945259148</v>
+        <v>-0.1632899148810996</v>
       </c>
       <c r="G60" t="n">
-        <v>-5.099847439776648</v>
+        <v>-4.090745105947769</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-14.58419039749496</v>
       </c>
       <c r="E61" t="n">
-        <v>-8.937528710257601</v>
+        <v>-8.458154041707802</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.3065197079695828</v>
+        <v>-0.1870655368416742</v>
       </c>
       <c r="G61" t="n">
-        <v>-5.473069716885733</v>
+        <v>-4.488659466216349</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-14.75502145011659</v>
       </c>
       <c r="E62" t="n">
-        <v>-8.461427117418232</v>
+        <v>-7.963264994290556</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.2597278176132538</v>
+        <v>-0.1449868755083666</v>
       </c>
       <c r="G62" t="n">
-        <v>-5.497827261559436</v>
+        <v>-4.459018492582682</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-14.90731025963094</v>
       </c>
       <c r="E63" t="n">
-        <v>-8.011418484142425</v>
+        <v>-7.499993858236079</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.2724404436725698</v>
+        <v>-0.1714202349458115</v>
       </c>
       <c r="G63" t="n">
-        <v>-5.478856514741776</v>
+        <v>-4.459097046399732</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-15.03659985153361</v>
       </c>
       <c r="E64" t="n">
-        <v>-7.66542819694413</v>
+        <v>-7.1409243604989</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.424991956384362</v>
+        <v>-0.3338302516974234</v>
       </c>
       <c r="G64" t="n">
-        <v>-5.657684279256912</v>
+        <v>-4.677411196285514</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-15.12403798376157</v>
       </c>
       <c r="E65" t="n">
-        <v>-7.3099198055799</v>
+        <v>-6.776356095568196</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.3534948905656959</v>
+        <v>-0.2746268582471381</v>
       </c>
       <c r="G65" t="n">
-        <v>-5.903937403406937</v>
+        <v>-4.951040325677589</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-15.17469052436351</v>
       </c>
       <c r="E66" t="n">
-        <v>-7.056780130135127</v>
+        <v>-6.524682758041696</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.4728966924822376</v>
+        <v>-0.389956953979903</v>
       </c>
       <c r="G66" t="n">
-        <v>-5.857499005227335</v>
+        <v>-4.934596393308381</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-15.18249492451817</v>
       </c>
       <c r="E67" t="n">
-        <v>-6.892825221648191</v>
+        <v>-6.363058279460587</v>
       </c>
       <c r="F67" t="n">
-        <v>-0.5671612729426654</v>
+        <v>-0.4594116205552598</v>
       </c>
       <c r="G67" t="n">
-        <v>-5.941878897042259</v>
+        <v>-5.039426462162082</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-15.13252111307708</v>
       </c>
       <c r="E68" t="n">
-        <v>-6.614194832570576</v>
+        <v>-6.084715921045491</v>
       </c>
       <c r="F68" t="n">
-        <v>-0.5168606454247539</v>
+        <v>-0.4181970512095062</v>
       </c>
       <c r="G68" t="n">
-        <v>-5.909279062966362</v>
+        <v>-5.02719825130791</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-15.03606132686764</v>
       </c>
       <c r="E69" t="n">
-        <v>-6.500723843841337</v>
+        <v>-5.951815954899129</v>
       </c>
       <c r="F69" t="n">
-        <v>-0.8107959365243458</v>
+        <v>-0.6802787694951786</v>
       </c>
       <c r="G69" t="n">
-        <v>-5.932164408333699</v>
+        <v>-5.105765160661107</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-14.89165243694468</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.314786958883143</v>
+        <v>-5.739458802806332</v>
       </c>
       <c r="F70" t="n">
-        <v>-0.7170550481775871</v>
+        <v>-0.6286820039959361</v>
       </c>
       <c r="G70" t="n">
-        <v>-5.762527440413455</v>
+        <v>-4.956827123533632</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-14.69349475798677</v>
       </c>
       <c r="E71" t="n">
-        <v>-6.233850342715592</v>
+        <v>-5.622073215527417</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.7866668223870447</v>
+        <v>-0.7077333285542782</v>
       </c>
       <c r="G71" t="n">
-        <v>-5.670174336167919</v>
+        <v>-4.916489738478274</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-14.45751080053154</v>
       </c>
       <c r="E72" t="n">
-        <v>-6.249980059816599</v>
+        <v>-5.613366834137669</v>
       </c>
       <c r="F72" t="n">
-        <v>-0.9182182813407082</v>
+        <v>-0.8122099052312521</v>
       </c>
       <c r="G72" t="n">
-        <v>-5.482352159600516</v>
+        <v>-4.793919599274035</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-14.18666780412993</v>
       </c>
       <c r="E73" t="n">
-        <v>-6.307088684812208</v>
+        <v>-5.659700493894538</v>
       </c>
       <c r="F73" t="n">
-        <v>-0.9717003384491592</v>
+        <v>-0.8517617521161066</v>
       </c>
       <c r="G73" t="n">
-        <v>-5.308132885685668</v>
+        <v>-4.603544423652496</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.88481924533016</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.524879142584322</v>
+        <v>-5.894314560818269</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.8500990296552074</v>
+        <v>-0.7449285609276219</v>
       </c>
       <c r="G74" t="n">
-        <v>-5.157872525971177</v>
+        <v>-4.478683131450954</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.5719192335596</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.701743061673199</v>
+        <v>-6.088460319658225</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.197424731743358</v>
+        <v>-1.077394499290414</v>
       </c>
       <c r="G75" t="n">
-        <v>-4.988196281142407</v>
+        <v>-4.312829839051968</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.25193072937965</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.170054734321741</v>
+        <v>-6.596101270043311</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.133220078607534</v>
+        <v>-0.9964971600313883</v>
       </c>
       <c r="G76" t="n">
-        <v>-4.762157672580007</v>
+        <v>-4.132588105829925</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-12.93071602978318</v>
       </c>
       <c r="E77" t="n">
-        <v>-7.597034006898952</v>
+        <v>-7.05938549840063</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.20077636127084</v>
+        <v>-1.054784092282753</v>
       </c>
       <c r="G77" t="n">
-        <v>-4.695753512566772</v>
+        <v>-4.063382193008562</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-12.62415488966789</v>
       </c>
       <c r="E78" t="n">
-        <v>-8.197617215157452</v>
+        <v>-7.645894481104274</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.249833220018788</v>
+        <v>-1.124474420309261</v>
       </c>
       <c r="G78" t="n">
-        <v>-4.338202721959234</v>
+        <v>-3.676268982584405</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-12.33182951988787</v>
       </c>
       <c r="E79" t="n">
-        <v>-8.609147570381428</v>
+        <v>-8.062687942070623</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.265269045069183</v>
+        <v>-1.096640184467751</v>
       </c>
       <c r="G79" t="n">
-        <v>-4.196832035874276</v>
+        <v>-3.494155050055995</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.06142645197327</v>
       </c>
       <c r="E80" t="n">
-        <v>-9.058174280944106</v>
+        <v>-8.531261460775999</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.38471012389425</v>
+        <v>-1.28967309756616</v>
       </c>
       <c r="G80" t="n">
-        <v>-3.839975137317348</v>
+        <v>-3.135373582981334</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-11.82685532079776</v>
       </c>
       <c r="E81" t="n">
-        <v>-9.942035645789034</v>
+        <v>-9.456795625566141</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.367480653354538</v>
+        <v>-1.209914788654365</v>
       </c>
       <c r="G81" t="n">
-        <v>-3.848694611009937</v>
+        <v>-3.12495210991932</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-11.62591219003553</v>
       </c>
       <c r="E82" t="n">
-        <v>-10.69153070656933</v>
+        <v>-10.25684006761834</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.451559422204103</v>
+        <v>-1.300853924192994</v>
       </c>
       <c r="G82" t="n">
-        <v>-3.643459671663039</v>
+        <v>-2.940114978399832</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.46944509774309</v>
       </c>
       <c r="E83" t="n">
-        <v>-11.47803770748318</v>
+        <v>-11.08300365383978</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.584236819202155</v>
+        <v>-1.420491387560687</v>
       </c>
       <c r="G83" t="n">
-        <v>-3.314554839673197</v>
+        <v>-2.577052328295926</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.36883550846851</v>
       </c>
       <c r="E84" t="n">
-        <v>-12.66863863560691</v>
+        <v>-12.28409151653973</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.651832378773987</v>
+        <v>-1.493703545051619</v>
       </c>
       <c r="G84" t="n">
-        <v>-3.166428525321908</v>
+        <v>-2.456027080827011</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-11.31860924498775</v>
       </c>
       <c r="E85" t="n">
-        <v>-13.54332229615978</v>
+        <v>-13.17435501747426</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.71458378629438</v>
+        <v>-1.581487435605393</v>
       </c>
       <c r="G85" t="n">
-        <v>-2.833700740902282</v>
+        <v>-2.123364757921593</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-11.3296295677564</v>
       </c>
       <c r="E86" t="n">
-        <v>-14.66280583524725</v>
+        <v>-14.34119341594025</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.898609195037681</v>
+        <v>-1.783121991670816</v>
       </c>
       <c r="G86" t="n">
-        <v>-2.579513681230171</v>
+        <v>-1.871337928218366</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-11.40623706230324</v>
       </c>
       <c r="E87" t="n">
-        <v>-15.71525678378509</v>
+        <v>-15.4270951982387</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.93106501378232</v>
+        <v>-1.829075974645274</v>
       </c>
       <c r="G87" t="n">
-        <v>-2.151460839819937</v>
+        <v>-1.454596836463383</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-11.53432064513382</v>
       </c>
       <c r="E88" t="n">
-        <v>-17.10669363750089</v>
+        <v>-16.82932010949608</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.875134696042466</v>
+        <v>-1.818850886125886</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.875907141910128</v>
+        <v>-1.143615367063864</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-11.71663256515552</v>
       </c>
       <c r="E89" t="n">
-        <v>-18.73136986634205</v>
+        <v>-18.49686053784105</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.098122798042745</v>
+        <v>-2.052888891724581</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.694343086101071</v>
+        <v>-0.9507002846910305</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-11.94109405103244</v>
       </c>
       <c r="E90" t="n">
-        <v>-20.30605968293349</v>
+        <v>-20.09909655961149</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.308882689188851</v>
+        <v>-2.272839579465579</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.409087991785544</v>
+        <v>-0.6642537908169058</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-12.17729733032676</v>
       </c>
       <c r="E91" t="n">
-        <v>-22.00504782270428</v>
+        <v>-21.89869904672094</v>
       </c>
       <c r="F91" t="n">
-        <v>-2.465466631175895</v>
+        <v>-2.47316490524683</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.546439340898092</v>
+        <v>-0.8113719978493817</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-12.4099705232396</v>
       </c>
       <c r="E92" t="n">
-        <v>-23.65071101300072</v>
+        <v>-23.59866910920486</v>
       </c>
       <c r="F92" t="n">
-        <v>-2.576214420914056</v>
+        <v>-2.567586593341358</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.344464384958784</v>
+        <v>-0.6247674054462601</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-12.60879166083505</v>
       </c>
       <c r="E93" t="n">
-        <v>-25.75126626553294</v>
+        <v>-25.68808281201877</v>
       </c>
       <c r="F93" t="n">
-        <v>-2.689371194375094</v>
+        <v>-2.725414304098366</v>
       </c>
       <c r="G93" t="n">
-        <v>-1.318423794606591</v>
+        <v>-0.610143303172052</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-12.73597600624658</v>
       </c>
       <c r="E94" t="n">
-        <v>-27.96229436944364</v>
+        <v>-27.93664654817669</v>
       </c>
       <c r="F94" t="n">
-        <v>-2.537435019896863</v>
+        <v>-2.599387796943911</v>
       </c>
       <c r="G94" t="n">
-        <v>-1.412714559672702</v>
+        <v>-0.7433574845866148</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-12.78003814320106</v>
       </c>
       <c r="E95" t="n">
-        <v>-30.2221960398625</v>
+        <v>-30.2167365495775</v>
       </c>
       <c r="F95" t="n">
-        <v>-2.979300240805118</v>
+        <v>-3.071902098804646</v>
       </c>
       <c r="G95" t="n">
-        <v>-1.768641904727867</v>
+        <v>-1.101327228885089</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-12.72615903787742</v>
       </c>
       <c r="E96" t="n">
-        <v>-32.44880398415485</v>
+        <v>-32.41316673581967</v>
       </c>
       <c r="F96" t="n">
-        <v>-2.992012866864434</v>
+        <v>-3.13655189023709</v>
       </c>
       <c r="G96" t="n">
-        <v>-2.026874485978071</v>
+        <v>-1.346663891836194</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-12.57042376609245</v>
       </c>
       <c r="E97" t="n">
-        <v>-34.68866133892303</v>
+        <v>-34.63676345045842</v>
       </c>
       <c r="F97" t="n">
-        <v>-3.274479300674674</v>
+        <v>-3.475642533837795</v>
       </c>
       <c r="G97" t="n">
-        <v>-2.204471574026086</v>
+        <v>-1.557895105884602</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-12.33063670379397</v>
       </c>
       <c r="E98" t="n">
-        <v>-37.19228931904346</v>
+        <v>-37.14983098092775</v>
       </c>
       <c r="F98" t="n">
-        <v>-3.526663238012001</v>
+        <v>-3.733403792185698</v>
       </c>
       <c r="G98" t="n">
-        <v>-2.65087982402042</v>
+        <v>-1.979179226725664</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-12.0260048987783</v>
       </c>
       <c r="E99" t="n">
-        <v>-39.64826131682001</v>
+        <v>-39.66521584900005</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.465875675917867</v>
+        <v>-3.649023900370773</v>
       </c>
       <c r="G99" t="n">
-        <v>-3.12639226323191</v>
+        <v>-2.450646144359061</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-11.67095928227643</v>
       </c>
       <c r="E100" t="n">
-        <v>-42.21732462654339</v>
+        <v>-42.23355908206714</v>
       </c>
       <c r="F100" t="n">
-        <v>-3.642621764281169</v>
+        <v>-3.829160895170082</v>
       </c>
       <c r="G100" t="n">
-        <v>-3.417905478305783</v>
+        <v>-2.790325941587644</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-11.31165171348282</v>
       </c>
       <c r="E101" t="n">
-        <v>-44.51705308220679</v>
+        <v>-44.51380619110204</v>
       </c>
       <c r="F101" t="n">
-        <v>-3.854219562809146</v>
+        <v>-4.05684913389054</v>
       </c>
       <c r="G101" t="n">
-        <v>-3.93564059418184</v>
+        <v>-3.379387923345425</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-10.95837377471069</v>
       </c>
       <c r="E102" t="n">
-        <v>-46.83858022210165</v>
+        <v>-46.83446923900935</v>
       </c>
       <c r="F102" t="n">
-        <v>-3.983335853434248</v>
+        <v>-4.203718587169023</v>
       </c>
       <c r="G102" t="n">
-        <v>-4.244488018218158</v>
+        <v>-3.672576953183039</v>
       </c>
     </row>
   </sheetData>
